--- a/table_5.xlsx
+++ b/table_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,69 +424,164 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ConvAI2</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>WoW</t>
+          <t>Group
+&lt;1GB</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>Composition by Memory
+1GB - 2GB</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>BST</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Average</t>
+          <t>Footprint
+&gt;2GB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>scen1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.9233</t>
+          <t>mob,be</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6288</t>
+          <t>nas,goo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8342</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.8174</t>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scen2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>den</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>vgg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scen3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mob</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>vgg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>scen4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ssd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nas,den</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>scen5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>le</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ssd,nas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vgg</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="24">
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_5.xlsx
+++ b/table_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,163 +424,270 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Group
-&lt;1GB</t>
+          <t>Object</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Composition by Memory
-1GB - 2GB</t>
+          <t>BP (ACC)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Footprint
-&gt;2GB</t>
+          <t>CNT (AE)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>LBP (ACC)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>LCNT (AE)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>scen1</t>
+          <t>amsterdam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mob,be</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nas,goo</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>scen2</t>
+          <t>archie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>den</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vgg</t>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>scen3</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mob</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>res</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vgg</t>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>scen4</t>
+          <t>shinjuku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ssd</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nas,den</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>scen5</t>
+          <t>taipei</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>le</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ssd,nas</t>
+          <t>87.74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vgg</t>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="42">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
     <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
+    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
     <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="F6"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
     <mergeCell ref="A6"/>
+    <mergeCell ref="F7"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F3"/>
     <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="F5"/>
     <mergeCell ref="B1"/>
+    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
+    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_5.xlsx
+++ b/table_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,164 +424,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Group
-&lt;1GB</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Composition by Memory
-1GB - 2GB</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Footprint
-&gt;2GB</t>
+          <t>AMI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>scen1</t>
+          <t>Zhao et al. [12]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mob,be</t>
+          <t>79.40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nas,goo</t>
+          <t>68.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>scen2</t>
+          <t>Ours</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>66.73</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>den</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>scen3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mob</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>res</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>vgg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>scen4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ssd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nas,den</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>scen5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>le</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ssd,nas</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>vgg</t>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.00</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D4"/>
-    <mergeCell ref="A4"/>
+  <mergeCells count="11">
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="C2"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_5.xlsx
+++ b/table_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,270 +424,204 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Object</t>
+          <t>Input Data (Dimension)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>BP (ACC)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CNT (AE)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>LBP (ACC)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>LCNT (AE)</t>
+          <t>SLO (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amsterdam</t>
+          <t>GoogLeNet (goo)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Car</t>
+          <t>ImageNet (3x224x224))</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>85.79</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.09</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>archie</t>
+          <t>LeNet (le)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bus</t>
+          <t>MNIST (1x28x28)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>86.96</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>ResNet50 (res)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Car</t>
+          <t>ImageNet (3x224x224)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.05</t>
+          <t>108</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>shinjuku</t>
+          <t>SSD-MobileNet (ssd)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Car</t>
+          <t>Camera Data (3x300x300)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.05</t>
+          <t>202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>taipei</t>
+          <t>VGG-16 (vgg)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Car</t>
+          <t>ImageNet (3x224x224)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.37</t>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>MnasNet (nas)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ImageNet (3x224x224)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>87.34</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mobilenet_v2 (mob)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ImageNet(3x224x224)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DenseNet (den)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ImageNet(3x224x224)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Base Bert (be)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rand. Index Vector(1x14)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D4"/>
+  <mergeCells count="30">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="B9"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
     <mergeCell ref="C7"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="E7"/>
+    <mergeCell ref="A10"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
+    <mergeCell ref="A9"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
     <mergeCell ref="B7"/>
-    <mergeCell ref="D1"/>
     <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="F6"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
     <mergeCell ref="A6"/>
-    <mergeCell ref="F7"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="D6"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="C1"/>
-    <mergeCell ref="A7"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="C9"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
+    <mergeCell ref="B10"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
